--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H2">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.004310666666666667</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N2">
-        <v>0.012932</v>
+        <v>0.1831</v>
       </c>
       <c r="O2">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P2">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q2">
-        <v>0.1026978040244445</v>
+        <v>1.448411654844445</v>
       </c>
       <c r="R2">
-        <v>0.9242802362200001</v>
+        <v>13.0357048936</v>
       </c>
       <c r="S2">
-        <v>0.04486752179773908</v>
+        <v>0.1812084821098531</v>
       </c>
       <c r="T2">
-        <v>0.04486752179773908</v>
+        <v>0.1812084821098531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H3">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06103333333333334</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N3">
-        <v>0.1831</v>
+        <v>0.69124</v>
       </c>
       <c r="O3">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P3">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q3">
-        <v>1.454064948722223</v>
+        <v>5.468050640604445</v>
       </c>
       <c r="R3">
-        <v>13.0865845385</v>
+        <v>49.21245576544</v>
       </c>
       <c r="S3">
-        <v>0.6352647108850933</v>
+        <v>0.6840991325702613</v>
       </c>
       <c r="T3">
-        <v>0.6352647108850933</v>
+        <v>0.6840991325702613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.82411166666667</v>
+        <v>2.471212</v>
       </c>
       <c r="H4">
-        <v>71.47233500000002</v>
+        <v>7.413636</v>
       </c>
       <c r="I4">
-        <v>0.8811513593020099</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J4">
-        <v>0.8811513593020099</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.019313</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N4">
-        <v>0.057939</v>
+        <v>0.1831</v>
       </c>
       <c r="O4">
-        <v>0.2281323458190108</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P4">
-        <v>0.2281323458190108</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q4">
-        <v>0.4601150686183334</v>
+        <v>0.1508263057333333</v>
       </c>
       <c r="R4">
-        <v>4.141035617565</v>
+        <v>1.3574367516</v>
       </c>
       <c r="S4">
-        <v>0.2010191266191776</v>
+        <v>0.01886963960332758</v>
       </c>
       <c r="T4">
-        <v>0.2010191266191776</v>
+        <v>0.01886963960332758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>7.413636</v>
       </c>
       <c r="I5">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J5">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004310666666666667</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N5">
-        <v>0.012932</v>
+        <v>0.69124</v>
       </c>
       <c r="O5">
-        <v>0.0509191994361561</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P5">
-        <v>0.0509191994361561</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q5">
-        <v>0.01065257119466667</v>
+        <v>0.5694001942933333</v>
       </c>
       <c r="R5">
-        <v>0.095873140752</v>
+        <v>5.12460174864</v>
       </c>
       <c r="S5">
-        <v>0.004653989194987167</v>
+        <v>0.07123675412017562</v>
       </c>
       <c r="T5">
-        <v>0.004653989194987167</v>
+        <v>0.07123675412017562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.471212</v>
+        <v>1.148663</v>
       </c>
       <c r="H6">
-        <v>7.413636</v>
+        <v>3.445989</v>
       </c>
       <c r="I6">
-        <v>0.0913994965852216</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J6">
-        <v>0.0913994965852216</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,27 +809,27 @@
         <v>0.1831</v>
       </c>
       <c r="O6">
-        <v>0.7209484547448332</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P6">
-        <v>0.7209484547448332</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q6">
-        <v>0.1508263057333333</v>
+        <v>0.07010673176666667</v>
       </c>
       <c r="R6">
-        <v>1.3574367516</v>
+        <v>0.6309605859</v>
       </c>
       <c r="S6">
-        <v>0.06589432582757117</v>
+        <v>0.008770941884256417</v>
       </c>
       <c r="T6">
-        <v>0.06589432582757117</v>
+        <v>0.008770941884256417</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.471212</v>
+        <v>1.148663</v>
       </c>
       <c r="H7">
-        <v>7.413636</v>
+        <v>3.445989</v>
       </c>
       <c r="I7">
-        <v>0.0913994965852216</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J7">
-        <v>0.0913994965852216</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +865,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.019313</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N7">
-        <v>0.057939</v>
+        <v>0.69124</v>
       </c>
       <c r="O7">
-        <v>0.2281323458190108</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P7">
-        <v>0.2281323458190108</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q7">
-        <v>0.047726517356</v>
+        <v>0.2646672707066667</v>
       </c>
       <c r="R7">
-        <v>0.429538656204</v>
+        <v>2.38200543636</v>
       </c>
       <c r="S7">
-        <v>0.02085118156266328</v>
+        <v>0.03311210195561663</v>
       </c>
       <c r="T7">
-        <v>0.02085118156266327</v>
+        <v>0.03311210195561663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.7137869999999999</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H8">
-        <v>2.141361</v>
+        <v>0.222389</v>
       </c>
       <c r="I8">
-        <v>0.02639990922230694</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J8">
-        <v>0.02639990922230694</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.004310666666666667</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N8">
-        <v>0.012932</v>
+        <v>0.1831</v>
       </c>
       <c r="O8">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P8">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q8">
-        <v>0.003076897828</v>
+        <v>0.004524380655555556</v>
       </c>
       <c r="R8">
-        <v>0.027692080452</v>
+        <v>0.0407194259</v>
       </c>
       <c r="S8">
-        <v>0.001344262242787063</v>
+        <v>0.000566038079256173</v>
       </c>
       <c r="T8">
-        <v>0.001344262242787063</v>
+        <v>0.0005660380792561731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,303 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.7137869999999999</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H9">
-        <v>2.141361</v>
+        <v>0.222389</v>
       </c>
       <c r="I9">
-        <v>0.02639990922230694</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J9">
-        <v>0.02639990922230694</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06103333333333334</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N9">
-        <v>0.1831</v>
+        <v>0.69124</v>
       </c>
       <c r="O9">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P9">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q9">
-        <v>0.0435647999</v>
+        <v>0.01708046359555555</v>
       </c>
       <c r="R9">
-        <v>0.3920831991</v>
+        <v>0.15372417236</v>
       </c>
       <c r="S9">
-        <v>0.01903297375922606</v>
+        <v>0.002136909677253069</v>
       </c>
       <c r="T9">
-        <v>0.01903297375922606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7137869999999999</v>
-      </c>
-      <c r="H10">
-        <v>2.141361</v>
-      </c>
-      <c r="I10">
-        <v>0.02639990922230694</v>
-      </c>
-      <c r="J10">
-        <v>0.02639990922230694</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.019313</v>
-      </c>
-      <c r="N10">
-        <v>0.057939</v>
-      </c>
-      <c r="O10">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="P10">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="Q10">
-        <v>0.013785368331</v>
-      </c>
-      <c r="R10">
-        <v>0.124068314979</v>
-      </c>
-      <c r="S10">
-        <v>0.00602267322029382</v>
-      </c>
-      <c r="T10">
-        <v>0.006022673220293819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02836866666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.085106</v>
-      </c>
-      <c r="I11">
-        <v>0.001049234890461559</v>
-      </c>
-      <c r="J11">
-        <v>0.001049234890461559</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.004310666666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.012932</v>
-      </c>
-      <c r="O11">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="P11">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="Q11">
-        <v>0.0001222878657777778</v>
-      </c>
-      <c r="R11">
-        <v>0.001100590792</v>
-      </c>
-      <c r="S11">
-        <v>5.342620064278551E-05</v>
-      </c>
-      <c r="T11">
-        <v>5.342620064278551E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.02836866666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.085106</v>
-      </c>
-      <c r="I12">
-        <v>0.001049234890461559</v>
-      </c>
-      <c r="J12">
-        <v>0.001049234890461559</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.06103333333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.1831</v>
-      </c>
-      <c r="O12">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="P12">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="Q12">
-        <v>0.001731434288888889</v>
-      </c>
-      <c r="R12">
-        <v>0.0155829086</v>
-      </c>
-      <c r="S12">
-        <v>0.0007564442729426252</v>
-      </c>
-      <c r="T12">
-        <v>0.0007564442729426252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.02836866666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.085106</v>
-      </c>
-      <c r="I13">
-        <v>0.001049234890461559</v>
-      </c>
-      <c r="J13">
-        <v>0.001049234890461559</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.019313</v>
-      </c>
-      <c r="N13">
-        <v>0.057939</v>
-      </c>
-      <c r="O13">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="P13">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="Q13">
-        <v>0.0005478840593333334</v>
-      </c>
-      <c r="R13">
-        <v>0.004930956534</v>
-      </c>
-      <c r="S13">
-        <v>0.0002393644168761483</v>
-      </c>
-      <c r="T13">
-        <v>0.0002393644168761483</v>
+        <v>0.002136909677253069</v>
       </c>
     </row>
   </sheetData>
